--- a/Checklist shapefile.xlsx
+++ b/Checklist shapefile.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="34">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -118,6 +119,9 @@
   </si>
   <si>
     <t>Don have LandUse</t>
+  </si>
+  <si>
+    <t>Fuckmylife</t>
   </si>
 </sst>
 </file>
@@ -437,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,4 +884,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>